--- a/Assets/Tables/random_pool.xlsx
+++ b/Assets/Tables/random_pool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\GitLab\yh-project\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F206EB-98C9-4FC5-9BCE-1CEB9E47676A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D523BA-D274-494D-8B95-8C45F3FC5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pool_loot" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>uint key</t>
   </si>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>pool_loot</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>6010=50;6011=50;6012=50;6020=50;6021=50;6022=50;6023=50;6030=50;6031=50;6050=40;6051=40;6052=40;6053=40;6054=40;6055=40;6070=10;6071=10;6072=10;6073=10;6074=10</t>
   </si>
   <si>
@@ -78,16 +74,32 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>pool_relic</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>神秘祭坛</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6=10;7=10;8=10;4=10</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool_loot_dic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool_relic_dic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6010=50;6011=50;6012=50;6020=50;6021=50;6022=50;6023=50;6030=50;6031=50;6050=40;6051=40;6052=40;6053=40;6054=40;6055=40;6070=10;6071=10;6072=10;6073=10;6074=10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>落难旅人-索取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>落难旅人-提供</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,17 +532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB22D4E-177C-4FB4-ACF4-6C3B8984BA30}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="169.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,7 +552,7 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -557,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -568,10 +580,32 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +623,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +639,7 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -622,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -633,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -644,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
